--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H2">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J2">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>519.9238488874055</v>
+        <v>587.8491348023895</v>
       </c>
       <c r="R2">
-        <v>519.9238488874055</v>
+        <v>5290.642213221505</v>
       </c>
       <c r="S2">
-        <v>0.06116166775471133</v>
+        <v>0.06016045471780389</v>
       </c>
       <c r="T2">
-        <v>0.06116166775471133</v>
+        <v>0.06016045471780391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H3">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J3">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>266.9491467282365</v>
+        <v>295.6294435851711</v>
       </c>
       <c r="R3">
-        <v>266.9491467282365</v>
+        <v>2660.66499226654</v>
       </c>
       <c r="S3">
-        <v>0.0314027814929718</v>
+        <v>0.03025470431292528</v>
       </c>
       <c r="T3">
-        <v>0.0314027814929718</v>
+        <v>0.03025470431292529</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H4">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J4">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>236.7967854630772</v>
+        <v>283.0763881747161</v>
       </c>
       <c r="R4">
-        <v>236.7967854630772</v>
+        <v>2547.687493572445</v>
       </c>
       <c r="S4">
-        <v>0.02785578378231461</v>
+        <v>0.02897002517183132</v>
       </c>
       <c r="T4">
-        <v>0.02785578378231461</v>
+        <v>0.02897002517183133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.49751994114152</v>
+        <v>4.979788333333333</v>
       </c>
       <c r="H5">
-        <v>4.49751994114152</v>
+        <v>14.939365</v>
       </c>
       <c r="I5">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="J5">
-        <v>0.1277925083975108</v>
+        <v>0.129176854764059</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>62.67032808044954</v>
+        <v>95.67788499682779</v>
       </c>
       <c r="R5">
-        <v>62.67032808044954</v>
+        <v>861.10096497145</v>
       </c>
       <c r="S5">
-        <v>0.007372275367513077</v>
+        <v>0.009791670561498475</v>
       </c>
       <c r="T5">
-        <v>0.007372275367513077</v>
+        <v>0.00979167056149848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H6">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I6">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J6">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>2080.883333923049</v>
+        <v>2127.148610928549</v>
       </c>
       <c r="R6">
-        <v>2080.883333923049</v>
+        <v>19144.33749835694</v>
       </c>
       <c r="S6">
-        <v>0.2447864151222637</v>
+        <v>0.2176922957092124</v>
       </c>
       <c r="T6">
-        <v>0.2447864151222637</v>
+        <v>0.2176922957092125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H7">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I7">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J7">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>1068.406520725043</v>
+        <v>1069.743447837461</v>
       </c>
       <c r="R7">
-        <v>1068.406520725043</v>
+        <v>9627.691030537151</v>
       </c>
       <c r="S7">
-        <v>0.1256828760353776</v>
+        <v>0.1094774976149738</v>
       </c>
       <c r="T7">
-        <v>0.1256828760353776</v>
+        <v>0.1094774976149738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H8">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I8">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J8">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>947.7281826004061</v>
+        <v>1024.319864134757</v>
       </c>
       <c r="R8">
-        <v>947.7281826004061</v>
+        <v>9218.878777212816</v>
       </c>
       <c r="S8">
-        <v>0.1114867809007454</v>
+        <v>0.1048288500476256</v>
       </c>
       <c r="T8">
-        <v>0.1114867809007454</v>
+        <v>0.1048288500476256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.0003558396774</v>
+        <v>18.019504</v>
       </c>
       <c r="H9">
-        <v>18.0003558396774</v>
+        <v>54.058512</v>
       </c>
       <c r="I9">
-        <v>0.5114620179352253</v>
+        <v>0.467430078412646</v>
       </c>
       <c r="J9">
-        <v>0.5114620179352253</v>
+        <v>0.4674300784126461</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N9">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q9">
-        <v>250.8245034598106</v>
+        <v>346.2131150979734</v>
       </c>
       <c r="R9">
-        <v>250.8245034598106</v>
+        <v>3115.91803588176</v>
       </c>
       <c r="S9">
-        <v>0.02950594587683857</v>
+        <v>0.03543143504083421</v>
       </c>
       <c r="T9">
-        <v>0.02950594587683857</v>
+        <v>0.03543143504083422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H10">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J10">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N10">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q10">
-        <v>817.109166945595</v>
+        <v>1033.229140473868</v>
       </c>
       <c r="R10">
-        <v>817.109166945595</v>
+        <v>9299.062264264812</v>
       </c>
       <c r="S10">
-        <v>0.09612130602394846</v>
+        <v>0.1057406249980942</v>
       </c>
       <c r="T10">
-        <v>0.09612130602394846</v>
+        <v>0.1057406249980942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H11">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I11">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J11">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q11">
-        <v>419.5356596292318</v>
+        <v>519.611134576144</v>
       </c>
       <c r="R11">
-        <v>419.5356596292318</v>
+        <v>4676.500211185296</v>
       </c>
       <c r="S11">
-        <v>0.04935242089857191</v>
+        <v>0.05317698076232288</v>
       </c>
       <c r="T11">
-        <v>0.04935242089857191</v>
+        <v>0.0531769807623229</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H12">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I12">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J12">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N12">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q12">
-        <v>372.1483915753818</v>
+        <v>497.5473398298521</v>
       </c>
       <c r="R12">
-        <v>372.1483915753818</v>
+        <v>4477.926058468668</v>
       </c>
       <c r="S12">
-        <v>0.04377798081332651</v>
+        <v>0.05091897297400928</v>
       </c>
       <c r="T12">
-        <v>0.04377798081332651</v>
+        <v>0.05091897297400928</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.06827505660968</v>
+        <v>8.752692000000001</v>
       </c>
       <c r="H13">
-        <v>7.06827505660968</v>
+        <v>26.258076</v>
       </c>
       <c r="I13">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="J13">
-        <v>0.2008379309816797</v>
+        <v>0.2270468436801446</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N13">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q13">
-        <v>98.49230744003233</v>
+        <v>168.16760121772</v>
       </c>
       <c r="R13">
-        <v>98.49230744003233</v>
+        <v>1513.50841095948</v>
       </c>
       <c r="S13">
-        <v>0.01158622324583285</v>
+        <v>0.01721026494571822</v>
       </c>
       <c r="T13">
-        <v>0.01158622324583285</v>
+        <v>0.01721026494571823</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H14">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I14">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J14">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N14">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q14">
-        <v>650.5838730436516</v>
+        <v>802.5042480691584</v>
       </c>
       <c r="R14">
-        <v>650.5838730436516</v>
+        <v>7222.538232622425</v>
       </c>
       <c r="S14">
-        <v>0.07653196670015842</v>
+        <v>0.08212824961125319</v>
       </c>
       <c r="T14">
-        <v>0.07653196670015842</v>
+        <v>0.08212824961125322</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H15">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I15">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J15">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q15">
-        <v>334.0350902460037</v>
+        <v>403.5795415624333</v>
       </c>
       <c r="R15">
-        <v>334.0350902460037</v>
+        <v>3632.2158740619</v>
       </c>
       <c r="S15">
-        <v>0.03929449139861526</v>
+        <v>0.04130231261352557</v>
       </c>
       <c r="T15">
-        <v>0.03929449139861526</v>
+        <v>0.04130231261352559</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H16">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I16">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J16">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N16">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q16">
-        <v>296.3052572805095</v>
+        <v>386.4426952242584</v>
       </c>
       <c r="R16">
-        <v>296.3052572805095</v>
+        <v>3477.984257018325</v>
       </c>
       <c r="S16">
-        <v>0.0348561115989303</v>
+        <v>0.03954852850958145</v>
       </c>
       <c r="T16">
-        <v>0.0348561115989303</v>
+        <v>0.03954852850958146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.62777404548827</v>
+        <v>6.798175000000001</v>
       </c>
       <c r="H17">
-        <v>5.62777404548827</v>
+        <v>20.394525</v>
       </c>
       <c r="I17">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="J17">
-        <v>0.1599075426855841</v>
+        <v>0.1763462231431503</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N17">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q17">
-        <v>78.41976253781121</v>
+        <v>130.6149904975834</v>
       </c>
       <c r="R17">
-        <v>78.41976253781121</v>
+        <v>1175.53491447825</v>
       </c>
       <c r="S17">
-        <v>0.009224972987880093</v>
+        <v>0.01336713240879011</v>
       </c>
       <c r="T17">
-        <v>0.009224972987880093</v>
+        <v>0.01336713240879012</v>
       </c>
     </row>
   </sheetData>
